--- a/program/MATLAB_source_code/default_parameter.xlsx
+++ b/program/MATLAB_source_code/default_parameter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\research\CGU\MRM_LC_quantitation\program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F451531-C916-492C-8C3A-6BB8BEE8A87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DAF76F-1A60-4C61-BB4D-6682F0BBC4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>pwd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>lowess_span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantifier_sel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,39 +478,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="18" width="11" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
-    <col min="21" max="23" width="10.85546875" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" customWidth="1"/>
-    <col min="25" max="25" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="24" width="10.85546875" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" customWidth="1"/>
+    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -519,74 +523,77 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -599,70 +606,73 @@
       <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
         <v>500</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.02</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.04</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>7</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
         <v>10</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>50</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="12">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="12">
         <v>130000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>0.1</v>
       </c>
     </row>

--- a/program/MATLAB_source_code/default_parameter.xlsx
+++ b/program/MATLAB_source_code/default_parameter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\research\CGU\MRM_LC_quantitation\program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DAF76F-1A60-4C61-BB4D-6682F0BBC4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9539DF8A-26D0-4CE4-8AC6-0012CD74B381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>pwd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,14 @@
   </si>
   <si>
     <t>quantifier_sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xlabel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylabel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,15 +510,15 @@
     <col min="16" max="16" width="10.28515625" customWidth="1"/>
     <col min="17" max="17" width="22.42578125" customWidth="1"/>
     <col min="18" max="18" width="9.140625" customWidth="1"/>
-    <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" customWidth="1"/>
-    <col min="22" max="24" width="10.85546875" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" customWidth="1"/>
-    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="11" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" customWidth="1"/>
+    <col min="24" max="26" width="10.85546875" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" customWidth="1"/>
+    <col min="28" max="28" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -568,32 +576,38 @@
       <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -652,27 +666,33 @@
         <v>50</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="12">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="12">
         <v>130000000</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>0.1</v>
       </c>
     </row>
